--- a/results/qld_all_in_return_30y.xlsx
+++ b/results/qld_all_in_return_30y.xlsx
@@ -10369,12 +10369,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -10391,16 +10391,25 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -10412,24 +10421,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -10438,28 +10431,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -10480,13 +10451,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -10496,7 +10460,61 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -10509,33 +10527,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -10550,19 +10543,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10574,25 +10555,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10610,13 +10603,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10634,13 +10621,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10658,7 +10669,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10676,61 +10723,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10755,26 +10748,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -10842,6 +10815,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -10856,151 +10840,160 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -22238,7 +22231,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3597910" y="229235"/>
+        <a:off x="4652010" y="229235"/>
         <a:ext cx="4552950" cy="2848610"/>
       </xdr:xfrm>
       <a:graphic>
@@ -22540,10 +22533,16 @@
   <dimension ref="A1:E1723"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="A$1:A$1048576 E$1:E$1048576"/>
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.95" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="10.8971962616822" customWidth="1"/>
+    <col min="2" max="2" width="12.9065420560748" customWidth="1"/>
+    <col min="3" max="3" width="10.8971962616822" customWidth="1"/>
+    <col min="4" max="5" width="12.9065420560748" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
